--- a/data/EntrevistasRealizadas.xlsx
+++ b/data/EntrevistasRealizadas.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Dropbox\Autónomo\EAS\web\generator\join tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7EFDFC1-910D-4F5F-B976-73448D7F1DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A1BA071-C9C4-4C15-8753-58B3FDAD7862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{6F68F9CA-03EE-443D-A415-DBD40A1F4807}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{325F4056-68AF-4EBD-ACEF-EDD11275F747}"/>
   </bookViews>
   <sheets>
-    <sheet name="Edad" sheetId="2" r:id="rId1"/>
-    <sheet name="Estudios" sheetId="3" r:id="rId2"/>
-    <sheet name="Habitat" sheetId="4" r:id="rId3"/>
-    <sheet name="Provincia" sheetId="5" r:id="rId4"/>
-    <sheet name="EstimadorInterpretación" sheetId="6" r:id="rId5"/>
+    <sheet name="Clase" sheetId="2" r:id="rId1"/>
+    <sheet name="Edad" sheetId="3" r:id="rId2"/>
+    <sheet name="Estudios" sheetId="4" r:id="rId3"/>
+    <sheet name="Habitat" sheetId="5" r:id="rId4"/>
+    <sheet name="Provincia" sheetId="6" r:id="rId5"/>
+    <sheet name="EstimadorInterpretación" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1015">
   <si>
     <t>Tamaños muestrales en cada edición (entrevistas realizadas)*</t>
   </si>
@@ -60,21 +61,762 @@
     <t>2012</t>
   </si>
   <si>
-    <t>2015</t>
+    <t>2016</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
+    <t>Grupo I y II</t>
+  </si>
+  <si>
+    <t>Entrevistas realizadas</t>
+  </si>
+  <si>
+    <t>% (columna)</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>% (fila)</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>% (edición)</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>Grupo III</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>Grupo IV y V</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>Grupo VI</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>Grupo VII</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>No ha trabajado</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>* Las casillas con valores enteros representan el número de entrevistas realizadas, es decir, personas que contestaron en cada edición; mientras que las casillas con porcentajes representan la distribución de las entrevistas realizadas en cada edición (% columna), en cada categoría de la variable de segmentación (% fila) o según sexo (% edición).</t>
+  </si>
+  <si>
     <t>16/24</t>
   </si>
   <si>
-    <t>Entrevistas realizadas</t>
-  </si>
-  <si>
-    <t>% (columna)</t>
-  </si>
-  <si>
     <t>15,53%</t>
   </si>
   <si>
@@ -111,18 +853,9 @@
     <t>13,32%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>% (fila)</t>
-  </si>
-  <si>
     <t>33,05%</t>
   </si>
   <si>
@@ -135,9 +868,6 @@
     <t>11,39%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>32,15%</t>
   </si>
   <si>
@@ -162,9 +892,6 @@
     <t>12,5%</t>
   </si>
   <si>
-    <t>% (edición)</t>
-  </si>
-  <si>
     <t>50,51%</t>
   </si>
   <si>
@@ -282,9 +1009,6 @@
     <t>49,48%</t>
   </si>
   <si>
-    <t>39,58%</t>
-  </si>
-  <si>
     <t>50,42%</t>
   </si>
   <si>
@@ -297,9 +1021,6 @@
     <t>50,52%</t>
   </si>
   <si>
-    <t>60,42%</t>
-  </si>
-  <si>
     <t>49,58%</t>
   </si>
   <si>
@@ -324,9 +1045,6 @@
     <t>19,96%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
     <t>19,92%</t>
   </si>
   <si>
@@ -375,9 +1093,6 @@
     <t>29,88%</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
     <t>24,93%</t>
   </si>
   <si>
@@ -498,9 +1213,6 @@
     <t>35,67%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
     <t>50,41%</t>
   </si>
   <si>
@@ -513,9 +1225,6 @@
     <t>45,01%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
     <t>49,59%</t>
   </si>
   <si>
@@ -561,9 +1270,6 @@
     <t>14,62%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
     <t>13,05%</t>
   </si>
   <si>
@@ -576,24 +1282,15 @@
     <t>20,99%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
     <t>35,42%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
     <t>18,15%</t>
   </si>
   <si>
     <t>44,79%</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
     <t>19,45%</t>
   </si>
   <si>
@@ -774,9 +1471,6 @@
     <t>49,36%</t>
   </si>
   <si>
-    <t>49,32%</t>
-  </si>
-  <si>
     <t>38,61%</t>
   </si>
   <si>
@@ -786,21 +1480,12 @@
     <t>50,64%</t>
   </si>
   <si>
-    <t>50,68%</t>
-  </si>
-  <si>
     <t>61,39%</t>
   </si>
   <si>
     <t>54,01%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>* Las casillas con valores enteros representan el número de entrevistas realizadas, es decir, personas que contestaron en cada edición; mientras que las casillas con porcentajes representan la distribución de las entrevistas realizadas en cada edición (% columna), en cada categoría de la variable de segmentación (% fila) o según sexo (% edición).</t>
-  </si>
-  <si>
     <t>Primarios</t>
   </si>
   <si>
@@ -957,9 +1642,6 @@
     <t>22,14%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
     <t>26,2%</t>
   </si>
   <si>
@@ -978,9 +1660,6 @@
     <t>36,43%</t>
   </si>
   <si>
-    <t>20,71%</t>
-  </si>
-  <si>
     <t>22,57%</t>
   </si>
   <si>
@@ -1032,9 +1711,6 @@
     <t>15,58%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
     <t>16,52%</t>
   </si>
   <si>
@@ -1053,9 +1729,6 @@
     <t>15,04%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
     <t>15,7%</t>
   </si>
   <si>
@@ -1182,7 +1855,7 @@
     <t>54,02%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>3,27%</t>
@@ -1254,9 +1927,6 @@
     <t>21,19%</t>
   </si>
   <si>
-    <t>21,86%</t>
-  </si>
-  <si>
     <t>34,61%</t>
   </si>
   <si>
@@ -1290,7 +1960,7 @@
     <t>56,09%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>17,98%</t>
@@ -1299,9 +1969,6 @@
     <t>17,2%</t>
   </si>
   <si>
-    <t>16,68%</t>
-  </si>
-  <si>
     <t>18,13%</t>
   </si>
   <si>
@@ -1326,9 +1993,6 @@
     <t>16,95%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
     <t>17,47%</t>
   </si>
   <si>
@@ -1389,7 +2053,7 @@
     <t>53,91%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>29,17%</t>
@@ -1488,7 +2152,7 @@
     <t>53,68%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>19,94%</t>
@@ -1542,9 +2206,6 @@
     <t>25,02%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
     <t>32,88%</t>
   </si>
   <si>
@@ -1593,15 +2254,9 @@
     <t>29,8%</t>
   </si>
   <si>
-    <t>29,49%</t>
-  </si>
-  <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>30,41%</t>
-  </si>
-  <si>
     <t>28,73%</t>
   </si>
   <si>
@@ -1707,9 +2362,6 @@
     <t>7,93%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
     <t>6,81%</t>
   </si>
   <si>
@@ -1908,9 +2560,6 @@
     <t>23,41%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
     <t>25,3%</t>
   </si>
   <si>
@@ -1974,15 +2623,9 @@
     <t>11,26%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
     <t>11,65%</t>
   </si>
   <si>
@@ -1995,9 +2638,6 @@
     <t>11,16%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
     <t>11,46%</t>
   </si>
   <si>
@@ -2118,12 +2758,6 @@
     <t>23,07%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
     <t>31,24%</t>
   </si>
   <si>
@@ -2136,9 +2770,6 @@
     <t>20,19%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
     <t>38,3%</t>
   </si>
   <si>
@@ -2232,9 +2863,6 @@
     <t>21,39%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
     <t>20,84%</t>
   </si>
   <si>
@@ -2343,9 +2971,6 @@
     <t>23,85%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
     <t>29,65%</t>
   </si>
   <si>
@@ -2397,9 +3022,6 @@
     <t>22,95%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
     <t>22,75%</t>
   </si>
   <si>
@@ -2428,9 +3050,6 @@
   </si>
   <si>
     <t>23,57%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
   </si>
   <si>
     <t>23,95%</t>
@@ -2477,7 +3096,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2587,17 +3206,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>120015</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8966743-6CB1-4918-A07B-F1F72DC76C61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263A8DDF-0FAA-4646-87CA-891107C89766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +3242,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5667375" cy="8020050"/>
+          <a:ext cx="6576060" cy="9305952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2646,39 +3265,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2730,7 +3349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2841,13 +3460,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2856,6 +3468,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2920,18 +3539,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10EEA13-331F-4BAF-B7AC-D7E0FD7ACBA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F660DAC-81C2-456C-96C8-5F072BAE2471}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3049,49 +3688,49 @@
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="D4" s="7">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="E4" s="7">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F4" s="7">
-        <v>172</v>
+        <v>554</v>
       </c>
       <c r="G4" s="7">
-        <v>1510</v>
+        <v>1809</v>
       </c>
       <c r="H4" s="7">
-        <v>489</v>
+        <v>298</v>
       </c>
       <c r="I4" s="7">
-        <v>421</v>
+        <v>283</v>
       </c>
       <c r="J4" s="7">
-        <v>404</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7">
-        <v>207</v>
+        <v>686</v>
       </c>
       <c r="L4" s="7">
-        <v>1521</v>
+        <v>1599</v>
       </c>
       <c r="M4" s="7">
-        <v>988</v>
+        <v>753</v>
       </c>
       <c r="N4" s="7">
-        <v>867</v>
+        <v>687</v>
       </c>
       <c r="O4" s="7">
-        <v>797</v>
+        <v>728</v>
       </c>
       <c r="P4" s="7">
-        <v>379</v>
+        <v>1240</v>
       </c>
       <c r="Q4" s="7">
-        <v>3031</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,49 +3894,49 @@
         <v>9</v>
       </c>
       <c r="C8" s="7">
-        <v>703</v>
+        <v>350</v>
       </c>
       <c r="D8" s="7">
-        <v>667</v>
+        <v>375</v>
       </c>
       <c r="E8" s="7">
-        <v>567</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7">
-        <v>302</v>
+        <v>481</v>
       </c>
       <c r="G8" s="7">
-        <v>2239</v>
+        <v>1560</v>
       </c>
       <c r="H8" s="7">
-        <v>591</v>
+        <v>363</v>
       </c>
       <c r="I8" s="7">
-        <v>571</v>
+        <v>305</v>
       </c>
       <c r="J8" s="7">
-        <v>579</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7">
-        <v>461</v>
+        <v>590</v>
       </c>
       <c r="L8" s="7">
-        <v>2202</v>
+        <v>1610</v>
       </c>
       <c r="M8" s="7">
-        <v>1294</v>
+        <v>713</v>
       </c>
       <c r="N8" s="7">
-        <v>1238</v>
+        <v>680</v>
       </c>
       <c r="O8" s="7">
-        <v>1146</v>
+        <v>706</v>
       </c>
       <c r="P8" s="7">
-        <v>763</v>
+        <v>1071</v>
       </c>
       <c r="Q8" s="7">
-        <v>4441</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,28 +3966,28 @@
         <v>58</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,28 +3996,28 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>73</v>
@@ -3396,7 +4035,7 @@
         <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>31</v>
@@ -3408,34 +4047,34 @@
         <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
@@ -3455,55 +4094,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>613</v>
+        <v>532</v>
       </c>
       <c r="D12" s="7">
-        <v>651</v>
+        <v>591</v>
       </c>
       <c r="E12" s="7">
-        <v>638</v>
+        <v>502</v>
       </c>
       <c r="F12" s="7">
-        <v>546</v>
+        <v>488</v>
       </c>
       <c r="G12" s="7">
-        <v>2448</v>
+        <v>2113</v>
       </c>
       <c r="H12" s="7">
-        <v>658</v>
+        <v>164</v>
       </c>
       <c r="I12" s="7">
-        <v>667</v>
+        <v>244</v>
       </c>
       <c r="J12" s="7">
-        <v>665</v>
+        <v>153</v>
       </c>
       <c r="K12" s="7">
-        <v>848</v>
+        <v>289</v>
       </c>
       <c r="L12" s="7">
-        <v>2838</v>
+        <v>850</v>
       </c>
       <c r="M12" s="7">
-        <v>1271</v>
+        <v>696</v>
       </c>
       <c r="N12" s="7">
-        <v>1318</v>
+        <v>835</v>
       </c>
       <c r="O12" s="7">
-        <v>1303</v>
+        <v>655</v>
       </c>
       <c r="P12" s="7">
-        <v>1394</v>
+        <v>777</v>
       </c>
       <c r="Q12" s="7">
-        <v>5286</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,49 +4151,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,49 +4306,49 @@
         <v>9</v>
       </c>
       <c r="C16" s="7">
-        <v>484</v>
+        <v>1224</v>
       </c>
       <c r="D16" s="7">
-        <v>548</v>
+        <v>1083</v>
       </c>
       <c r="E16" s="7">
-        <v>582</v>
+        <v>1103</v>
       </c>
       <c r="F16" s="7">
-        <v>665</v>
+        <v>1118</v>
       </c>
       <c r="G16" s="7">
-        <v>2279</v>
+        <v>4528</v>
       </c>
       <c r="H16" s="7">
-        <v>502</v>
+        <v>694</v>
       </c>
       <c r="I16" s="7">
-        <v>539</v>
+        <v>711</v>
       </c>
       <c r="J16" s="7">
-        <v>602</v>
+        <v>798</v>
       </c>
       <c r="K16" s="7">
-        <v>1141</v>
+        <v>1230</v>
       </c>
       <c r="L16" s="7">
-        <v>2784</v>
+        <v>3433</v>
       </c>
       <c r="M16" s="7">
-        <v>986</v>
+        <v>1918</v>
       </c>
       <c r="N16" s="7">
-        <v>1087</v>
+        <v>1794</v>
       </c>
       <c r="O16" s="7">
-        <v>1184</v>
+        <v>1901</v>
       </c>
       <c r="P16" s="7">
-        <v>1806</v>
+        <v>2348</v>
       </c>
       <c r="Q16" s="7">
-        <v>5063</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,46 +4360,46 @@
         <v>126</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="N17" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="O17" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,22 +4408,22 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>145</v>
@@ -3808,7 +4447,7 @@
         <v>150</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>31</v>
@@ -3820,34 +4459,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>31</v>
@@ -3867,55 +4506,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="7">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="D20" s="7">
-        <v>393</v>
+        <v>487</v>
       </c>
       <c r="E20" s="7">
-        <v>424</v>
+        <v>597</v>
       </c>
       <c r="F20" s="7">
-        <v>663</v>
+        <v>547</v>
       </c>
       <c r="G20" s="7">
-        <v>1872</v>
+        <v>1971</v>
       </c>
       <c r="H20" s="7">
-        <v>396</v>
+        <v>539</v>
       </c>
       <c r="I20" s="7">
-        <v>406</v>
+        <v>703</v>
       </c>
       <c r="J20" s="7">
-        <v>433</v>
+        <v>699</v>
       </c>
       <c r="K20" s="7">
-        <v>1002</v>
+        <v>1290</v>
       </c>
       <c r="L20" s="7">
-        <v>2237</v>
+        <v>3231</v>
       </c>
       <c r="M20" s="7">
-        <v>788</v>
+        <v>879</v>
       </c>
       <c r="N20" s="7">
-        <v>799</v>
+        <v>1190</v>
       </c>
       <c r="O20" s="7">
-        <v>857</v>
+        <v>1296</v>
       </c>
       <c r="P20" s="7">
-        <v>1665</v>
+        <v>1837</v>
       </c>
       <c r="Q20" s="7">
-        <v>4109</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,37 +4563,37 @@
         <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>173</v>
@@ -3966,7 +4605,7 @@
         <v>175</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +4614,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>177</v>
@@ -3996,25 +4635,25 @@
         <v>181</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>31</v>
@@ -4026,34 +4665,34 @@
         <v>40</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>31</v>
@@ -4073,55 +4712,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="7">
-        <v>523</v>
+        <v>306</v>
       </c>
       <c r="D24" s="7">
-        <v>504</v>
+        <v>265</v>
       </c>
       <c r="E24" s="7">
-        <v>627</v>
+        <v>272</v>
       </c>
       <c r="F24" s="7">
-        <v>1028</v>
+        <v>112</v>
       </c>
       <c r="G24" s="7">
-        <v>2682</v>
+        <v>955</v>
       </c>
       <c r="H24" s="7">
-        <v>661</v>
+        <v>1238</v>
       </c>
       <c r="I24" s="7">
-        <v>694</v>
+        <v>1044</v>
       </c>
       <c r="J24" s="7">
-        <v>655</v>
+        <v>992</v>
       </c>
       <c r="K24" s="7">
-        <v>1708</v>
+        <v>1159</v>
       </c>
       <c r="L24" s="7">
-        <v>3718</v>
+        <v>4433</v>
       </c>
       <c r="M24" s="7">
-        <v>1184</v>
+        <v>1544</v>
       </c>
       <c r="N24" s="7">
-        <v>1198</v>
+        <v>1309</v>
       </c>
       <c r="O24" s="7">
-        <v>1282</v>
+        <v>1264</v>
       </c>
       <c r="P24" s="7">
-        <v>2736</v>
+        <v>1271</v>
       </c>
       <c r="Q24" s="7">
-        <v>6400</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,31 +4769,31 @@
         <v>10</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>207</v>
@@ -4166,13 +4805,13 @@
         <v>209</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,46 +4820,46 @@
         <v>26</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>31</v>
@@ -4232,34 +4871,34 @@
         <v>40</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>31</v>
@@ -4285,49 +4924,49 @@
         <v>9</v>
       </c>
       <c r="C28" s="7">
-        <v>3214</v>
+        <v>3207</v>
       </c>
       <c r="D28" s="7">
-        <v>3209</v>
+        <v>3205</v>
       </c>
       <c r="E28" s="7">
-        <v>3231</v>
+        <v>3224</v>
       </c>
       <c r="F28" s="7">
-        <v>3376</v>
+        <v>3300</v>
       </c>
       <c r="G28" s="7">
-        <v>13030</v>
+        <v>12936</v>
       </c>
       <c r="H28" s="7">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="I28" s="7">
-        <v>3298</v>
+        <v>3290</v>
       </c>
       <c r="J28" s="7">
-        <v>3338</v>
+        <v>3326</v>
       </c>
       <c r="K28" s="7">
-        <v>5367</v>
+        <v>5244</v>
       </c>
       <c r="L28" s="7">
-        <v>15300</v>
+        <v>15156</v>
       </c>
       <c r="M28" s="7">
-        <v>6511</v>
+        <v>6503</v>
       </c>
       <c r="N28" s="7">
-        <v>6507</v>
+        <v>6495</v>
       </c>
       <c r="O28" s="7">
-        <v>6569</v>
+        <v>6550</v>
       </c>
       <c r="P28" s="7">
-        <v>8743</v>
+        <v>8544</v>
       </c>
       <c r="Q28" s="7">
-        <v>28330</v>
+        <v>28092</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,46 +5026,46 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>31</v>
@@ -4438,34 +5077,34 @@
         <v>40</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>31</v>
@@ -4485,12 +5124,12 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4585,8 +5224,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA22D1E-BECE-4120-B3C0-3BAB036FE0D2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047900C5-1593-4260-BF4B-D6FDCFCA4B3B}">
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4697,55 +5336,55 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>1038</v>
+        <v>499</v>
       </c>
       <c r="D4" s="7">
-        <v>908</v>
+        <v>446</v>
       </c>
       <c r="E4" s="7">
-        <v>762</v>
+        <v>393</v>
       </c>
       <c r="F4" s="7">
-        <v>691</v>
+        <v>172</v>
       </c>
       <c r="G4" s="7">
-        <v>3399</v>
+        <v>1510</v>
       </c>
       <c r="H4" s="7">
-        <v>1291</v>
+        <v>489</v>
       </c>
       <c r="I4" s="7">
-        <v>1247</v>
+        <v>421</v>
       </c>
       <c r="J4" s="7">
-        <v>892</v>
+        <v>404</v>
       </c>
       <c r="K4" s="7">
-        <v>1427</v>
+        <v>207</v>
       </c>
       <c r="L4" s="7">
-        <v>4857</v>
+        <v>1521</v>
       </c>
       <c r="M4" s="7">
-        <v>2329</v>
+        <v>988</v>
       </c>
       <c r="N4" s="7">
-        <v>2155</v>
+        <v>867</v>
       </c>
       <c r="O4" s="7">
-        <v>1654</v>
+        <v>797</v>
       </c>
       <c r="P4" s="7">
-        <v>2118</v>
+        <v>379</v>
       </c>
       <c r="Q4" s="7">
-        <v>8256</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,49 +5393,49 @@
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>267</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,46 +5444,46 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -4856,34 +5495,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>31</v>
@@ -4903,55 +5542,55 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7">
-        <v>1649</v>
+        <v>703</v>
       </c>
       <c r="D8" s="7">
-        <v>1856</v>
+        <v>667</v>
       </c>
       <c r="E8" s="7">
-        <v>1952</v>
+        <v>567</v>
       </c>
       <c r="F8" s="7">
-        <v>1992</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7">
-        <v>7449</v>
+        <v>2239</v>
       </c>
       <c r="H8" s="7">
-        <v>1554</v>
+        <v>591</v>
       </c>
       <c r="I8" s="7">
-        <v>1635</v>
+        <v>571</v>
       </c>
       <c r="J8" s="7">
-        <v>1908</v>
+        <v>579</v>
       </c>
       <c r="K8" s="7">
-        <v>2921</v>
+        <v>461</v>
       </c>
       <c r="L8" s="7">
-        <v>8018</v>
+        <v>2202</v>
       </c>
       <c r="M8" s="7">
-        <v>3203</v>
+        <v>1294</v>
       </c>
       <c r="N8" s="7">
-        <v>3491</v>
+        <v>1238</v>
       </c>
       <c r="O8" s="7">
-        <v>3860</v>
+        <v>1146</v>
       </c>
       <c r="P8" s="7">
-        <v>4913</v>
+        <v>763</v>
       </c>
       <c r="Q8" s="7">
-        <v>15467</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,49 +5599,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>188</v>
+        <v>304</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,46 +5650,46 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>31</v>
@@ -5062,34 +5701,34 @@
         <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>324</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
@@ -5109,55 +5748,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>527</v>
+        <v>613</v>
       </c>
       <c r="D12" s="7">
-        <v>438</v>
+        <v>651</v>
       </c>
       <c r="E12" s="7">
-        <v>501</v>
+        <v>638</v>
       </c>
       <c r="F12" s="7">
-        <v>681</v>
+        <v>546</v>
       </c>
       <c r="G12" s="7">
-        <v>2147</v>
+        <v>2448</v>
       </c>
       <c r="H12" s="7">
-        <v>452</v>
+        <v>658</v>
       </c>
       <c r="I12" s="7">
-        <v>412</v>
+        <v>667</v>
       </c>
       <c r="J12" s="7">
-        <v>526</v>
+        <v>665</v>
       </c>
       <c r="K12" s="7">
-        <v>1004</v>
+        <v>848</v>
       </c>
       <c r="L12" s="7">
-        <v>2394</v>
+        <v>2838</v>
       </c>
       <c r="M12" s="7">
-        <v>979</v>
+        <v>1271</v>
       </c>
       <c r="N12" s="7">
-        <v>850</v>
+        <v>1318</v>
       </c>
       <c r="O12" s="7">
-        <v>1027</v>
+        <v>1303</v>
       </c>
       <c r="P12" s="7">
-        <v>1685</v>
+        <v>1394</v>
       </c>
       <c r="Q12" s="7">
-        <v>4541</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,25 +5805,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>333</v>
+        <v>144</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>334</v>
@@ -5193,22 +5832,22 @@
         <v>335</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,46 +5856,46 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>219</v>
+        <v>350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>31</v>
@@ -5268,34 +5907,34 @@
         <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>31</v>
@@ -5315,55 +5954,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>363</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="7">
-        <v>3214</v>
+        <v>484</v>
       </c>
       <c r="D16" s="7">
-        <v>3202</v>
+        <v>548</v>
       </c>
       <c r="E16" s="7">
-        <v>3215</v>
+        <v>582</v>
       </c>
       <c r="F16" s="7">
-        <v>3364</v>
+        <v>665</v>
       </c>
       <c r="G16" s="7">
-        <v>12995</v>
+        <v>2279</v>
       </c>
       <c r="H16" s="7">
-        <v>3297</v>
+        <v>502</v>
       </c>
       <c r="I16" s="7">
-        <v>3294</v>
+        <v>539</v>
       </c>
       <c r="J16" s="7">
-        <v>3326</v>
+        <v>602</v>
       </c>
       <c r="K16" s="7">
-        <v>5352</v>
+        <v>1141</v>
       </c>
       <c r="L16" s="7">
-        <v>15269</v>
+        <v>2784</v>
       </c>
       <c r="M16" s="7">
-        <v>6511</v>
+        <v>986</v>
       </c>
       <c r="N16" s="7">
-        <v>6496</v>
+        <v>1087</v>
       </c>
       <c r="O16" s="7">
-        <v>6541</v>
+        <v>1184</v>
       </c>
       <c r="P16" s="7">
-        <v>8716</v>
+        <v>1806</v>
       </c>
       <c r="Q16" s="7">
-        <v>28264</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,49 +6011,49 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>31</v>
+        <v>364</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>31</v>
+        <v>365</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>31</v>
+        <v>368</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>31</v>
+        <v>369</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>31</v>
+        <v>370</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>31</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>31</v>
+        <v>374</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>31</v>
+        <v>375</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>31</v>
+        <v>376</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,46 +6062,46 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>240</v>
+        <v>387</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>31</v>
@@ -5474,34 +6113,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>31</v>
@@ -5520,92 +6159,713 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>251</v>
+      <c r="A20" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7">
+        <v>392</v>
+      </c>
+      <c r="D20" s="7">
+        <v>393</v>
+      </c>
+      <c r="E20" s="7">
+        <v>424</v>
+      </c>
+      <c r="F20" s="7">
+        <v>663</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1872</v>
+      </c>
+      <c r="H20" s="7">
+        <v>396</v>
+      </c>
+      <c r="I20" s="7">
+        <v>406</v>
+      </c>
+      <c r="J20" s="7">
+        <v>433</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1002</v>
+      </c>
+      <c r="L20" s="7">
+        <v>2237</v>
+      </c>
+      <c r="M20" s="7">
+        <v>788</v>
+      </c>
+      <c r="N20" s="7">
+        <v>799</v>
+      </c>
+      <c r="O20" s="7">
+        <v>857</v>
+      </c>
+      <c r="P20" s="7">
+        <v>1665</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>4109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="A24" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7">
+        <v>523</v>
+      </c>
+      <c r="D24" s="7">
+        <v>504</v>
+      </c>
+      <c r="E24" s="7">
+        <v>627</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1028</v>
+      </c>
+      <c r="G24" s="7">
+        <v>2682</v>
+      </c>
+      <c r="H24" s="7">
+        <v>661</v>
+      </c>
+      <c r="I24" s="7">
+        <v>694</v>
+      </c>
+      <c r="J24" s="7">
+        <v>655</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1708</v>
+      </c>
+      <c r="L24" s="7">
+        <v>3718</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1184</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1198</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1282</v>
+      </c>
+      <c r="P24" s="7">
+        <v>2736</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>6400</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3209</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3231</v>
+      </c>
+      <c r="F28" s="7">
+        <v>3376</v>
+      </c>
+      <c r="G28" s="7">
+        <v>13030</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3298</v>
+      </c>
+      <c r="J28" s="7">
+        <v>3338</v>
+      </c>
+      <c r="K28" s="7">
+        <v>5367</v>
+      </c>
+      <c r="L28" s="7">
+        <v>15300</v>
+      </c>
+      <c r="M28" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N28" s="7">
+        <v>6507</v>
+      </c>
+      <c r="O28" s="7">
+        <v>6569</v>
+      </c>
+      <c r="P28" s="7">
+        <v>8743</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>28330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:M25"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A33:M37"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5618,8 +6878,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E257BCB-265B-4AF7-91D5-0CCFB35EF710}">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70100216-4040-46CA-A207-CE54CA44E3AC}">
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5730,55 +6990,55 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>380</v>
+        <v>481</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>105</v>
+        <v>1038</v>
       </c>
       <c r="D4" s="7">
-        <v>122</v>
+        <v>908</v>
       </c>
       <c r="E4" s="7">
-        <v>113</v>
+        <v>762</v>
       </c>
       <c r="F4" s="7">
-        <v>118</v>
+        <v>691</v>
       </c>
       <c r="G4" s="7">
-        <v>458</v>
+        <v>3399</v>
       </c>
       <c r="H4" s="7">
-        <v>128</v>
+        <v>1291</v>
       </c>
       <c r="I4" s="7">
-        <v>99</v>
+        <v>1247</v>
       </c>
       <c r="J4" s="7">
-        <v>115</v>
+        <v>892</v>
       </c>
       <c r="K4" s="7">
-        <v>243</v>
+        <v>1427</v>
       </c>
       <c r="L4" s="7">
-        <v>585</v>
+        <v>4857</v>
       </c>
       <c r="M4" s="7">
-        <v>233</v>
+        <v>2329</v>
       </c>
       <c r="N4" s="7">
-        <v>221</v>
+        <v>2155</v>
       </c>
       <c r="O4" s="7">
-        <v>228</v>
+        <v>1654</v>
       </c>
       <c r="P4" s="7">
-        <v>361</v>
+        <v>2118</v>
       </c>
       <c r="Q4" s="7">
-        <v>1043</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,49 +7047,49 @@
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>381</v>
+        <v>482</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>382</v>
+        <v>483</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>383</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>485</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>385</v>
+        <v>487</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>386</v>
+        <v>488</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>387</v>
+        <v>489</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>389</v>
+        <v>491</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>390</v>
+        <v>492</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>391</v>
+        <v>493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>392</v>
+        <v>494</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>394</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,46 +7098,46 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>395</v>
+        <v>496</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>396</v>
+        <v>497</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>232</v>
+        <v>498</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>499</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>398</v>
+        <v>500</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>399</v>
+        <v>501</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>400</v>
+        <v>502</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>402</v>
+        <v>504</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>403</v>
+        <v>505</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>405</v>
+        <v>506</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -5889,34 +7149,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>406</v>
+        <v>507</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>407</v>
+        <v>508</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>509</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>510</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>511</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>412</v>
+        <v>513</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>413</v>
+        <v>514</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>515</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>415</v>
+        <v>516</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>31</v>
@@ -5936,55 +7196,55 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>416</v>
+        <v>517</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7">
-        <v>578</v>
+        <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>552</v>
+        <v>1856</v>
       </c>
       <c r="E8" s="7">
-        <v>539</v>
+        <v>1952</v>
       </c>
       <c r="F8" s="7">
-        <v>612</v>
+        <v>1992</v>
       </c>
       <c r="G8" s="7">
-        <v>2281</v>
+        <v>7449</v>
       </c>
       <c r="H8" s="7">
-        <v>568</v>
+        <v>1554</v>
       </c>
       <c r="I8" s="7">
-        <v>551</v>
+        <v>1635</v>
       </c>
       <c r="J8" s="7">
-        <v>551</v>
+        <v>1908</v>
       </c>
       <c r="K8" s="7">
-        <v>998</v>
+        <v>2921</v>
       </c>
       <c r="L8" s="7">
-        <v>2668</v>
+        <v>8018</v>
       </c>
       <c r="M8" s="7">
-        <v>1146</v>
+        <v>3203</v>
       </c>
       <c r="N8" s="7">
-        <v>1103</v>
+        <v>3491</v>
       </c>
       <c r="O8" s="7">
-        <v>1090</v>
+        <v>3860</v>
       </c>
       <c r="P8" s="7">
-        <v>1610</v>
+        <v>4913</v>
       </c>
       <c r="Q8" s="7">
-        <v>4949</v>
+        <v>15467</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,49 +7253,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>417</v>
+        <v>518</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>418</v>
+        <v>519</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>419</v>
+        <v>520</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="N9" s="7" t="s">
-        <v>427</v>
+        <v>528</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>428</v>
+        <v>529</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>209</v>
+        <v>530</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>429</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,46 +7304,46 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>430</v>
+        <v>532</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>431</v>
+        <v>235</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>432</v>
+        <v>533</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>433</v>
+        <v>534</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>434</v>
+        <v>535</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>435</v>
+        <v>536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>435</v>
+        <v>537</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>436</v>
+        <v>538</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>437</v>
+        <v>145</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>438</v>
+        <v>539</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>439</v>
+        <v>540</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>440</v>
+        <v>541</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>31</v>
@@ -6095,34 +7355,34 @@
         <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>413</v>
+        <v>542</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>441</v>
+        <v>543</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>442</v>
+        <v>544</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>443</v>
+        <v>545</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>444</v>
+        <v>546</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>408</v>
+        <v>547</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>445</v>
+        <v>548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>446</v>
+        <v>549</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>447</v>
+        <v>550</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>448</v>
+        <v>551</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
@@ -6142,55 +7402,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>449</v>
+        <v>552</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>936</v>
+        <v>438</v>
       </c>
       <c r="E12" s="7">
-        <v>951</v>
+        <v>501</v>
       </c>
       <c r="F12" s="7">
-        <v>964</v>
+        <v>681</v>
       </c>
       <c r="G12" s="7">
-        <v>3747</v>
+        <v>2147</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7">
-        <v>940</v>
+        <v>412</v>
       </c>
       <c r="J12" s="7">
-        <v>977</v>
+        <v>526</v>
       </c>
       <c r="K12" s="7">
-        <v>1517</v>
+        <v>1004</v>
       </c>
       <c r="L12" s="7">
-        <v>4342</v>
+        <v>2394</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>979</v>
       </c>
       <c r="N12" s="7">
-        <v>1876</v>
+        <v>850</v>
       </c>
       <c r="O12" s="7">
-        <v>1928</v>
+        <v>1027</v>
       </c>
       <c r="P12" s="7">
-        <v>2481</v>
+        <v>1685</v>
       </c>
       <c r="Q12" s="7">
-        <v>8089</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,49 +7459,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>75</v>
+        <v>553</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>450</v>
+        <v>554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>451</v>
+        <v>555</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>452</v>
+        <v>224</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>453</v>
+        <v>556</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>454</v>
+        <v>557</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>455</v>
+        <v>558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>456</v>
+        <v>559</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>457</v>
+        <v>560</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>458</v>
+        <v>308</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>459</v>
+        <v>561</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>460</v>
+        <v>19</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>461</v>
+        <v>562</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>458</v>
+        <v>563</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,46 +7510,46 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>462</v>
+        <v>565</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>463</v>
+        <v>566</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>464</v>
+        <v>567</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>465</v>
+        <v>568</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>466</v>
+        <v>569</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>467</v>
+        <v>570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="N14" s="7" t="s">
-        <v>107</v>
+        <v>451</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>470</v>
+        <v>573</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>471</v>
+        <v>574</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>31</v>
@@ -6301,34 +7561,34 @@
         <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>472</v>
+        <v>575</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>473</v>
+        <v>576</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>474</v>
+        <v>577</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>475</v>
+        <v>578</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>476</v>
+        <v>579</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>477</v>
+        <v>580</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>478</v>
+        <v>581</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>479</v>
+        <v>582</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>480</v>
+        <v>583</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>481</v>
+        <v>584</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>31</v>
@@ -6348,55 +7608,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>482</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="7">
-        <v>641</v>
+        <v>3214</v>
       </c>
       <c r="D16" s="7">
-        <v>689</v>
+        <v>3202</v>
       </c>
       <c r="E16" s="7">
-        <v>696</v>
+        <v>3215</v>
       </c>
       <c r="F16" s="7">
-        <v>676</v>
+        <v>3364</v>
       </c>
       <c r="G16" s="7">
-        <v>2702</v>
+        <v>12995</v>
       </c>
       <c r="H16" s="7">
-        <v>696</v>
+        <v>3297</v>
       </c>
       <c r="I16" s="7">
-        <v>705</v>
+        <v>3294</v>
       </c>
       <c r="J16" s="7">
-        <v>736</v>
+        <v>3326</v>
       </c>
       <c r="K16" s="7">
-        <v>1047</v>
+        <v>5352</v>
       </c>
       <c r="L16" s="7">
-        <v>3184</v>
+        <v>15269</v>
       </c>
       <c r="M16" s="7">
-        <v>1337</v>
+        <v>6511</v>
       </c>
       <c r="N16" s="7">
-        <v>1394</v>
+        <v>6496</v>
       </c>
       <c r="O16" s="7">
-        <v>1432</v>
+        <v>6541</v>
       </c>
       <c r="P16" s="7">
-        <v>1723</v>
+        <v>8716</v>
       </c>
       <c r="Q16" s="7">
-        <v>5886</v>
+        <v>28264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,49 +7665,49 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>483</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>484</v>
+        <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>485</v>
+        <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>486</v>
+        <v>31</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>487</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>488</v>
+        <v>31</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>489</v>
+        <v>31</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>490</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>491</v>
+        <v>31</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>492</v>
+        <v>31</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>493</v>
+        <v>31</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>494</v>
+        <v>31</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>495</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>496</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,46 +7716,46 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>497</v>
+        <v>585</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>498</v>
+        <v>586</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>587</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>499</v>
+        <v>588</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>404</v>
+        <v>589</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>304</v>
+        <v>590</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>500</v>
+        <v>591</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>501</v>
+        <v>592</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>502</v>
+        <v>593</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>504</v>
+        <v>594</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>456</v>
+        <v>595</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>31</v>
@@ -6507,34 +7767,1067 @@
         <v>40</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>323</v>
+        <v>596</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>506</v>
+        <v>597</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>507</v>
+        <v>598</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>508</v>
+        <v>599</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>318</v>
+        <v>600</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>510</v>
+        <v>601</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>511</v>
+        <v>602</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>512</v>
+        <v>603</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:M25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045F2122-3F13-46BD-9CDC-5B45BC5D5369}">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>105</v>
+      </c>
+      <c r="D4" s="7">
+        <v>122</v>
+      </c>
+      <c r="E4" s="7">
+        <v>113</v>
+      </c>
+      <c r="F4" s="7">
+        <v>118</v>
+      </c>
+      <c r="G4" s="7">
+        <v>458</v>
+      </c>
+      <c r="H4" s="7">
+        <v>128</v>
+      </c>
+      <c r="I4" s="7">
+        <v>99</v>
+      </c>
+      <c r="J4" s="7">
+        <v>115</v>
+      </c>
+      <c r="K4" s="7">
+        <v>243</v>
+      </c>
+      <c r="L4" s="7">
+        <v>585</v>
+      </c>
+      <c r="M4" s="7">
+        <v>233</v>
+      </c>
+      <c r="N4" s="7">
+        <v>221</v>
+      </c>
+      <c r="O4" s="7">
+        <v>228</v>
+      </c>
+      <c r="P4" s="7">
+        <v>361</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
+        <v>578</v>
+      </c>
+      <c r="D8" s="7">
+        <v>552</v>
+      </c>
+      <c r="E8" s="7">
+        <v>539</v>
+      </c>
+      <c r="F8" s="7">
+        <v>612</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2281</v>
+      </c>
+      <c r="H8" s="7">
+        <v>568</v>
+      </c>
+      <c r="I8" s="7">
+        <v>551</v>
+      </c>
+      <c r="J8" s="7">
+        <v>551</v>
+      </c>
+      <c r="K8" s="7">
+        <v>998</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2668</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1146</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1103</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1090</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1610</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>896</v>
+      </c>
+      <c r="D12" s="7">
+        <v>936</v>
+      </c>
+      <c r="E12" s="7">
+        <v>951</v>
+      </c>
+      <c r="F12" s="7">
+        <v>964</v>
+      </c>
+      <c r="G12" s="7">
+        <v>3747</v>
+      </c>
+      <c r="H12" s="7">
+        <v>908</v>
+      </c>
+      <c r="I12" s="7">
+        <v>940</v>
+      </c>
+      <c r="J12" s="7">
+        <v>977</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1517</v>
+      </c>
+      <c r="L12" s="7">
+        <v>4342</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1804</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1876</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1928</v>
+      </c>
+      <c r="P12" s="7">
+        <v>2481</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7">
+        <v>641</v>
+      </c>
+      <c r="D16" s="7">
+        <v>689</v>
+      </c>
+      <c r="E16" s="7">
+        <v>696</v>
+      </c>
+      <c r="F16" s="7">
+        <v>676</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2702</v>
+      </c>
+      <c r="H16" s="7">
+        <v>696</v>
+      </c>
+      <c r="I16" s="7">
+        <v>705</v>
+      </c>
+      <c r="J16" s="7">
+        <v>736</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1047</v>
+      </c>
+      <c r="L16" s="7">
+        <v>3184</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1394</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1432</v>
+      </c>
+      <c r="P16" s="7">
+        <v>1723</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>732</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>31</v>
@@ -6554,7 +8847,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>513</v>
+        <v>733</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>9</v>
@@ -6611,49 +8904,49 @@
         <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>514</v>
+        <v>734</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>255</v>
+        <v>483</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>515</v>
+        <v>735</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>516</v>
+        <v>736</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>517</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>518</v>
+        <v>737</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>519</v>
+        <v>244</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>520</v>
+        <v>738</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>521</v>
+        <v>739</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>522</v>
+        <v>740</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>523</v>
+        <v>741</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>524</v>
+        <v>742</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>525</v>
+        <v>743</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>526</v>
+        <v>744</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>527</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,46 +8955,46 @@
         <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>528</v>
+        <v>746</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>529</v>
+        <v>747</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>530</v>
+        <v>748</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>531</v>
+        <v>749</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>489</v>
+        <v>710</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>532</v>
+        <v>750</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>533</v>
+        <v>751</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>534</v>
+        <v>752</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>535</v>
+        <v>753</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>536</v>
+        <v>754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>537</v>
+        <v>755</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>538</v>
+        <v>756</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>31</v>
@@ -6713,34 +9006,34 @@
         <v>40</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>539</v>
+        <v>757</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>540</v>
+        <v>758</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>596</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>356</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>217</v>
+        <v>449</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>541</v>
+        <v>759</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>542</v>
+        <v>760</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>376</v>
+        <v>600</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>543</v>
+        <v>761</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>31</v>
@@ -6868,46 +9161,46 @@
         <v>26</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>232</v>
+        <v>464</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>233</v>
+        <v>465</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>234</v>
+        <v>466</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>235</v>
+        <v>467</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>236</v>
+        <v>468</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>237</v>
+        <v>469</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>239</v>
+        <v>471</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>240</v>
+        <v>472</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>241</v>
+        <v>473</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>242</v>
+        <v>474</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>31</v>
@@ -6919,34 +9212,34 @@
         <v>40</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>243</v>
+        <v>475</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>420</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>245</v>
+        <v>476</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>246</v>
+        <v>477</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>247</v>
+        <v>478</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>193</v>
+        <v>425</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>249</v>
+        <v>479</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>31</v>
@@ -6966,12 +9259,12 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -7064,8 +9357,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092D57E8-14E7-49B0-B59B-3E57070EF32F}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A817CF-D014-434F-BC3F-4D57653EF194}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7177,7 +9470,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>544</v>
+        <v>762</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -7234,49 +9527,49 @@
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>545</v>
+        <v>763</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>546</v>
+        <v>764</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>547</v>
+        <v>765</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>548</v>
+        <v>766</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>549</v>
+        <v>767</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>550</v>
+        <v>768</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>546</v>
+        <v>764</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>551</v>
+        <v>769</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>552</v>
+        <v>770</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>553</v>
+        <v>771</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>554</v>
+        <v>772</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>546</v>
+        <v>764</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>555</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>556</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,46 +9578,46 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>557</v>
+        <v>774</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>546</v>
+        <v>764</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>558</v>
+        <v>775</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>559</v>
+        <v>776</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>560</v>
+        <v>777</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>546</v>
+        <v>764</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>561</v>
+        <v>778</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>562</v>
+        <v>779</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>563</v>
+        <v>780</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>546</v>
+        <v>764</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>564</v>
+        <v>781</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>565</v>
+        <v>782</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -7336,40 +9629,40 @@
         <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>566</v>
+        <v>783</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>567</v>
+        <v>784</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>568</v>
+        <v>785</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>569</v>
+        <v>786</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>570</v>
+        <v>787</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>571</v>
+        <v>788</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>567</v>
+        <v>784</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>572</v>
+        <v>789</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>573</v>
+        <v>790</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>574</v>
+        <v>791</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>567</v>
+        <v>784</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>31</v>
@@ -7383,7 +9676,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>575</v>
+        <v>792</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
@@ -7440,49 +9733,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>576</v>
+        <v>793</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>577</v>
+        <v>794</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>578</v>
+        <v>795</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>579</v>
+        <v>796</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>580</v>
+        <v>797</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>581</v>
+        <v>798</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>582</v>
+        <v>799</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>176</v>
+        <v>411</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>583</v>
+        <v>800</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>584</v>
+        <v>801</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>585</v>
+        <v>802</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>586</v>
+        <v>803</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>587</v>
+        <v>804</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>588</v>
+        <v>805</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>589</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,46 +9784,46 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>590</v>
+        <v>807</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>591</v>
+        <v>808</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>592</v>
+        <v>809</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>434</v>
+        <v>655</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>593</v>
+        <v>810</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>439</v>
+        <v>660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>594</v>
+        <v>811</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>595</v>
+        <v>812</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>530</v>
+        <v>748</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>596</v>
+        <v>813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>597</v>
+        <v>814</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>598</v>
+        <v>815</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>31</v>
@@ -7542,34 +9835,34 @@
         <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>599</v>
+        <v>816</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>86</v>
+        <v>326</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>600</v>
+        <v>817</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>601</v>
+        <v>818</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>602</v>
+        <v>819</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>603</v>
+        <v>820</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>604</v>
+        <v>821</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>605</v>
+        <v>822</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>606</v>
+        <v>823</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
@@ -7589,7 +9882,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>607</v>
+        <v>824</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
@@ -7646,49 +9939,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>608</v>
+        <v>825</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>609</v>
+        <v>826</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>610</v>
+        <v>827</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>611</v>
+        <v>828</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>611</v>
+        <v>828</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>612</v>
+        <v>829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>613</v>
+        <v>830</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>614</v>
+        <v>831</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>615</v>
+        <v>832</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>616</v>
+        <v>833</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>617</v>
+        <v>834</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>618</v>
+        <v>835</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>619</v>
+        <v>836</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>620</v>
+        <v>837</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,46 +9990,46 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>621</v>
+        <v>838</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>622</v>
+        <v>148</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>623</v>
+        <v>839</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>624</v>
+        <v>840</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>625</v>
+        <v>841</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>185</v>
+        <v>417</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>626</v>
+        <v>842</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>627</v>
+        <v>843</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>628</v>
+        <v>844</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>629</v>
+        <v>845</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>630</v>
+        <v>846</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>631</v>
+        <v>847</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>31</v>
@@ -7748,34 +10041,34 @@
         <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>632</v>
+        <v>848</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>633</v>
+        <v>849</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>634</v>
+        <v>850</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>635</v>
+        <v>851</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>636</v>
+        <v>852</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>637</v>
+        <v>853</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>638</v>
+        <v>854</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>639</v>
+        <v>855</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>640</v>
+        <v>856</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>641</v>
+        <v>857</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>31</v>
@@ -7795,7 +10088,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>642</v>
+        <v>858</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>9</v>
@@ -7852,49 +10145,49 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>643</v>
+        <v>859</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>490</v>
+        <v>711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>644</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>645</v>
+        <v>860</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>646</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>647</v>
+        <v>861</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>648</v>
+        <v>862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>649</v>
+        <v>863</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>650</v>
+        <v>864</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>651</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>652</v>
+        <v>865</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>653</v>
+        <v>866</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>654</v>
+        <v>867</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>655</v>
+        <v>868</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>656</v>
+        <v>869</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,46 +10196,46 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>657</v>
+        <v>870</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>658</v>
+        <v>871</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>659</v>
+        <v>872</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>140</v>
+        <v>378</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>490</v>
+        <v>711</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>660</v>
+        <v>873</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>661</v>
+        <v>874</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>662</v>
+        <v>875</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>312</v>
+        <v>145</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>663</v>
+        <v>876</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>664</v>
+        <v>877</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>363</v>
+        <v>587</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>31</v>
@@ -7954,34 +10247,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>665</v>
+        <v>878</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>666</v>
+        <v>879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>667</v>
+        <v>880</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>668</v>
+        <v>881</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>669</v>
+        <v>882</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>670</v>
+        <v>883</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>671</v>
+        <v>884</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>672</v>
+        <v>885</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>673</v>
+        <v>886</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>674</v>
+        <v>887</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>31</v>
@@ -8001,7 +10294,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>675</v>
+        <v>888</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>9</v>
@@ -8058,49 +10351,49 @@
         <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>676</v>
+        <v>889</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>677</v>
+        <v>890</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>678</v>
+        <v>891</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>679</v>
+        <v>892</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>680</v>
+        <v>893</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>681</v>
+        <v>894</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>682</v>
+        <v>895</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>683</v>
+        <v>896</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>684</v>
+        <v>897</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>685</v>
+        <v>898</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>686</v>
+        <v>899</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>687</v>
+        <v>900</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>688</v>
+        <v>901</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>689</v>
+        <v>902</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>690</v>
+        <v>903</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8109,46 +10402,46 @@
         <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>691</v>
+        <v>904</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>692</v>
+        <v>239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>693</v>
+        <v>208</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>694</v>
+        <v>905</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>54</v>
+        <v>296</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>92</v>
+        <v>332</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>664</v>
+        <v>877</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>695</v>
+        <v>906</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>696</v>
+        <v>907</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>697</v>
+        <v>908</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>698</v>
+        <v>225</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>699</v>
+        <v>909</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>31</v>
@@ -8160,34 +10453,34 @@
         <v>40</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>700</v>
+        <v>910</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>701</v>
+        <v>911</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>702</v>
+        <v>912</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>703</v>
+        <v>913</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>704</v>
+        <v>914</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>705</v>
+        <v>915</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>706</v>
+        <v>916</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>707</v>
+        <v>917</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>708</v>
+        <v>918</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>709</v>
+        <v>919</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>31</v>
@@ -8207,7 +10500,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>710</v>
+        <v>920</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>9</v>
@@ -8264,49 +10557,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>711</v>
+        <v>921</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>712</v>
+        <v>922</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>713</v>
+        <v>923</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>714</v>
+        <v>924</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>715</v>
+        <v>925</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>716</v>
+        <v>926</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>717</v>
+        <v>927</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>718</v>
+        <v>928</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>719</v>
+        <v>929</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>720</v>
+        <v>930</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>547</v>
+        <v>765</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>721</v>
+        <v>931</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>722</v>
+        <v>932</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>723</v>
+        <v>933</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>724</v>
+        <v>934</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,46 +10608,46 @@
         <v>26</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>725</v>
+        <v>935</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>726</v>
+        <v>936</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>727</v>
+        <v>937</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>728</v>
+        <v>938</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>729</v>
+        <v>939</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>730</v>
+        <v>171</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>731</v>
+        <v>940</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>732</v>
+        <v>941</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>733</v>
+        <v>942</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>734</v>
+        <v>943</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>735</v>
+        <v>944</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>736</v>
+        <v>945</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>31</v>
@@ -8366,34 +10659,34 @@
         <v>40</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>737</v>
+        <v>946</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>738</v>
+        <v>947</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>739</v>
+        <v>948</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>740</v>
+        <v>949</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>741</v>
+        <v>950</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>742</v>
+        <v>951</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>562</v>
+        <v>779</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>743</v>
+        <v>952</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>744</v>
+        <v>953</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>745</v>
+        <v>954</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>31</v>
@@ -8413,7 +10706,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>746</v>
+        <v>955</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>9</v>
@@ -8470,49 +10763,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>747</v>
+        <v>956</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>653</v>
+        <v>866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>748</v>
+        <v>957</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>749</v>
+        <v>958</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>750</v>
+        <v>959</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>751</v>
+        <v>960</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>752</v>
+        <v>961</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>753</v>
+        <v>962</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>754</v>
+        <v>963</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>755</v>
+        <v>964</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>219</v>
+        <v>451</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>756</v>
+        <v>965</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>102</v>
+        <v>341</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>757</v>
+        <v>966</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>758</v>
+        <v>967</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,46 +10814,46 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>759</v>
+        <v>968</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>760</v>
+        <v>969</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>761</v>
+        <v>970</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>762</v>
+        <v>971</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>763</v>
+        <v>972</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>726</v>
+        <v>936</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>764</v>
+        <v>973</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>765</v>
+        <v>974</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>766</v>
+        <v>975</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>767</v>
+        <v>243</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>768</v>
+        <v>976</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>31</v>
@@ -8572,34 +10865,34 @@
         <v>40</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>769</v>
+        <v>977</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>770</v>
+        <v>978</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>771</v>
+        <v>979</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>772</v>
+        <v>980</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>773</v>
+        <v>981</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>774</v>
+        <v>982</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>775</v>
+        <v>983</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>776</v>
+        <v>984</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>777</v>
+        <v>985</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>778</v>
+        <v>986</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>31</v>
@@ -8619,7 +10912,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>779</v>
+        <v>987</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>9</v>
@@ -8676,49 +10969,49 @@
         <v>10</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>780</v>
+        <v>988</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>402</v>
+        <v>626</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>781</v>
+        <v>989</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>313</v>
+        <v>539</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>782</v>
+        <v>990</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>783</v>
+        <v>991</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>784</v>
+        <v>992</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>349</v>
+        <v>573</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>785</v>
+        <v>174</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>762</v>
+        <v>971</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>786</v>
+        <v>993</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>787</v>
+        <v>994</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>185</v>
+        <v>417</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>788</v>
+        <v>995</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8727,46 +11020,46 @@
         <v>26</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>789</v>
+        <v>996</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>790</v>
+        <v>997</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>623</v>
+        <v>839</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>791</v>
+        <v>998</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>792</v>
+        <v>999</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>793</v>
+        <v>1000</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>786</v>
+        <v>993</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>794</v>
+        <v>1001</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>795</v>
+        <v>1002</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>796</v>
+        <v>133</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>797</v>
+        <v>1003</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>798</v>
+        <v>1004</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>31</v>
@@ -8778,34 +11071,34 @@
         <v>40</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>799</v>
+        <v>1005</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>800</v>
+        <v>1006</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>801</v>
+        <v>1007</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>802</v>
+        <v>1008</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>803</v>
+        <v>1009</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>804</v>
+        <v>1010</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>805</v>
+        <v>1011</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>806</v>
+        <v>1012</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>807</v>
+        <v>1013</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>808</v>
+        <v>1014</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>31</v>
@@ -8933,46 +11226,46 @@
         <v>26</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>232</v>
+        <v>464</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>233</v>
+        <v>465</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>234</v>
+        <v>466</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>235</v>
+        <v>467</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>236</v>
+        <v>468</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>237</v>
+        <v>469</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>239</v>
+        <v>471</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>240</v>
+        <v>472</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>241</v>
+        <v>473</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>242</v>
+        <v>474</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>31</v>
@@ -8984,34 +11277,34 @@
         <v>40</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>243</v>
+        <v>475</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>188</v>
+        <v>420</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>245</v>
+        <v>476</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>246</v>
+        <v>477</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>247</v>
+        <v>478</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>193</v>
+        <v>425</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>249</v>
+        <v>479</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>31</v>
@@ -9031,12 +11324,12 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -9132,8 +11425,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C42585E-1091-4C91-AD4D-DD7567334DA3}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D98E6C4-DA2B-4A3B-9F8A-6311B5347688}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/EntrevistasRealizadas.xlsx
+++ b/data/EntrevistasRealizadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Dropbox\Autónomo\EAS\web\generator\join tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A1BA071-C9C4-4C15-8753-58B3FDAD7862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CF07D30-811E-4E37-9E17-C9AB692EFB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{325F4056-68AF-4EBD-ACEF-EDD11275F747}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{DE0F3A7A-DDFD-45AA-A98F-0D990BDE92BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Clase" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1012">
   <si>
     <t>Tamaños muestrales en cada edición (entrevistas realizadas)*</t>
   </si>
@@ -814,7 +814,7 @@
     <t>* Las casillas con valores enteros representan el número de entrevistas realizadas, es decir, personas que contestaron en cada edición; mientras que las casillas con porcentajes representan la distribución de las entrevistas realizadas en cada edición (% columna), en cada categoría de la variable de segmentación (% fila) o según sexo (% edición).</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>15,53%</t>
@@ -922,7 +922,7 @@
     <t>50,18%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>21,87%</t>
@@ -1024,7 +1024,7 @@
     <t>49,58%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>19,07%</t>
@@ -1132,7 +1132,7 @@
     <t>53,69%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>15,06%</t>
@@ -1237,7 +1237,7 @@
     <t>54,99%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>12,2%</t>
@@ -1330,1686 +1330,1680 @@
     <t>54,44%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>24,3%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
   </si>
   <si>
     <t>45,94%</t>
   </si>
   <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>22,9%</t>
   </si>
   <si>
     <t>22,34%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
     <t>23,21%</t>
   </si>
   <si>
@@ -3047,9 +3041,6 @@
   </si>
   <si>
     <t>32,0%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
   </si>
   <si>
     <t>23,95%</t>
@@ -3207,16 +3198,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161952</xdr:rowOff>
+      <xdr:colOff>777111</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263A8DDF-0FAA-4646-87CA-891107C89766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045D0A7F-416A-4CC8-B2B6-08DA258E6D91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3242,7 +3233,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6576060" cy="9305952"/>
+          <a:ext cx="7116951" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3570,7 +3561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F660DAC-81C2-456C-96C8-5F072BAE2471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67241616-A0AD-4C0F-944A-88FB364FF0E3}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5224,8 +5215,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047900C5-1593-4260-BF4B-D6FDCFCA4B3B}">
-  <dimension ref="A1:Q37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE67F5FF-B99F-4AFA-9C4F-83AA06F9EE14}">
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6372,49 +6363,49 @@
         <v>9</v>
       </c>
       <c r="C24" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D24" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="E24" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="F24" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="G24" s="7">
-        <v>2682</v>
+        <v>1480</v>
       </c>
       <c r="H24" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I24" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="J24" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="K24" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="L24" s="7">
-        <v>3718</v>
+        <v>1896</v>
       </c>
       <c r="M24" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N24" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="O24" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="P24" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="Q24" s="7">
-        <v>6400</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,28 +6429,28 @@
         <v>434</v>
       </c>
       <c r="H25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="N25" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="O25" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>442</v>
@@ -6477,34 +6468,34 @@
         <v>444</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>332</v>
+        <v>445</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>448</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>451</v>
@@ -6572,55 +6563,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>464</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="D28" s="7">
-        <v>3209</v>
+        <v>222</v>
       </c>
       <c r="E28" s="7">
-        <v>3231</v>
+        <v>302</v>
       </c>
       <c r="F28" s="7">
-        <v>3376</v>
+        <v>458</v>
       </c>
       <c r="G28" s="7">
-        <v>13030</v>
+        <v>1202</v>
       </c>
       <c r="H28" s="7">
-        <v>3297</v>
+        <v>290</v>
       </c>
       <c r="I28" s="7">
-        <v>3298</v>
+        <v>350</v>
       </c>
       <c r="J28" s="7">
-        <v>3338</v>
+        <v>301</v>
       </c>
       <c r="K28" s="7">
-        <v>5367</v>
+        <v>881</v>
       </c>
       <c r="L28" s="7">
-        <v>15300</v>
+        <v>1822</v>
       </c>
       <c r="M28" s="7">
-        <v>6511</v>
+        <v>510</v>
       </c>
       <c r="N28" s="7">
-        <v>6507</v>
+        <v>572</v>
       </c>
       <c r="O28" s="7">
-        <v>6569</v>
+        <v>603</v>
       </c>
       <c r="P28" s="7">
-        <v>8743</v>
+        <v>1339</v>
       </c>
       <c r="Q28" s="7">
-        <v>28330</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,49 +6620,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>31</v>
+        <v>465</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>31</v>
+        <v>466</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>31</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>31</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>31</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>31</v>
+        <v>470</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>471</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>31</v>
+        <v>472</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>31</v>
+        <v>473</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>31</v>
+        <v>474</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>31</v>
+        <v>431</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>31</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>31</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>31</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,46 +6671,46 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>346</v>
+        <v>488</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>31</v>
@@ -6731,141 +6722,348 @@
         <v>40</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3209</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3231</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3376</v>
+      </c>
+      <c r="G32" s="7">
+        <v>13030</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3298</v>
+      </c>
+      <c r="J32" s="7">
+        <v>3338</v>
+      </c>
+      <c r="K32" s="7">
+        <v>5367</v>
+      </c>
+      <c r="L32" s="7">
+        <v>15300</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6507</v>
+      </c>
+      <c r="O32" s="7">
+        <v>6569</v>
+      </c>
+      <c r="P32" s="7">
+        <v>8743</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>28330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="F35" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J35" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="K35" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A37:M41"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A33:M37"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6878,7 +7076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70100216-4040-46CA-A207-CE54CA44E3AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFFAD0F-9550-43D2-9265-0B7E509C0FC6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6990,7 +7188,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -7047,49 +7245,49 @@
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,46 +7296,46 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -7149,34 +7347,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>509</v>
+        <v>547</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>511</v>
+        <v>549</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>515</v>
+        <v>553</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>31</v>
@@ -7196,7 +7394,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>517</v>
+        <v>555</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
@@ -7253,49 +7451,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>518</v>
+        <v>556</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>519</v>
+        <v>557</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>520</v>
+        <v>558</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>524</v>
+        <v>562</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>525</v>
+        <v>563</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>420</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,31 +7502,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>532</v>
+        <v>570</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>235</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>535</v>
+        <v>573</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>538</v>
+        <v>576</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>31</v>
@@ -7337,13 +7535,13 @@
         <v>145</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>540</v>
+        <v>578</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>541</v>
+        <v>579</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>31</v>
@@ -7355,34 +7553,34 @@
         <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>542</v>
+        <v>580</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>543</v>
+        <v>581</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>544</v>
+        <v>582</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>547</v>
+        <v>585</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>549</v>
+        <v>587</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
@@ -7402,7 +7600,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
@@ -7459,49 +7657,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>224</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>556</v>
+        <v>484</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>558</v>
+        <v>595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>559</v>
+        <v>596</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>308</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,46 +7708,46 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>451</v>
+        <v>610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>573</v>
+        <v>611</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>31</v>
@@ -7561,34 +7759,34 @@
         <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>575</v>
+        <v>613</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>576</v>
+        <v>614</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>577</v>
+        <v>615</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>578</v>
+        <v>616</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>581</v>
+        <v>619</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>582</v>
+        <v>620</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>31</v>
@@ -7716,46 +7914,46 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>591</v>
+        <v>629</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>592</v>
+        <v>630</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>595</v>
+        <v>633</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>31</v>
@@ -7767,34 +7965,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>596</v>
+        <v>634</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>597</v>
+        <v>635</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>598</v>
+        <v>636</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>600</v>
+        <v>638</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>601</v>
+        <v>639</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>602</v>
+        <v>640</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>603</v>
+        <v>641</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>31</v>
@@ -7911,8 +8109,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045F2122-3F13-46BD-9CDC-5B45BC5D5369}">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6874D675-000B-45CA-A86E-74A41F07C6A4}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -8023,55 +8221,55 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D4" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="E4" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="F4" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="G4" s="7">
-        <v>458</v>
+        <v>2739</v>
       </c>
       <c r="H4" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I4" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="J4" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="K4" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="L4" s="7">
-        <v>585</v>
+        <v>3253</v>
       </c>
       <c r="M4" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N4" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="O4" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="P4" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="Q4" s="7">
-        <v>1043</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,49 +8278,49 @@
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>607</v>
+        <v>645</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>607</v>
+        <v>384</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>608</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>609</v>
+        <v>646</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>610</v>
+        <v>647</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>612</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>613</v>
+        <v>372</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>617</v>
+        <v>652</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>618</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,46 +8329,46 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>619</v>
+        <v>654</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>464</v>
+        <v>575</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>621</v>
+        <v>656</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>623</v>
+        <v>658</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>624</v>
+        <v>444</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>627</v>
+        <v>36</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>661</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -8182,34 +8380,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>630</v>
+        <v>83</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>631</v>
+        <v>421</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>633</v>
+        <v>665</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>634</v>
+        <v>666</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>635</v>
+        <v>78</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>636</v>
+        <v>426</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>31</v>
@@ -8229,55 +8427,55 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D8" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="E8" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="F8" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="G8" s="7">
-        <v>2281</v>
+        <v>3747</v>
       </c>
       <c r="H8" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I8" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="J8" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="K8" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="L8" s="7">
-        <v>2668</v>
+        <v>4342</v>
       </c>
       <c r="M8" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N8" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="O8" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="P8" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="Q8" s="7">
-        <v>4949</v>
+        <v>8089</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8286,49 +8484,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>640</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>180</v>
+        <v>671</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>375</v>
+        <v>675</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>646</v>
+        <v>677</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>647</v>
+        <v>678</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>648</v>
+        <v>679</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>649</v>
+        <v>680</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>89</v>
+        <v>681</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>441</v>
+        <v>678</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8337,46 +8535,46 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>652</v>
+        <v>683</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>653</v>
+        <v>684</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>655</v>
+        <v>686</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>656</v>
+        <v>687</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>658</v>
+        <v>345</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>659</v>
+        <v>346</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>661</v>
+        <v>691</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>31</v>
@@ -8388,34 +8586,34 @@
         <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>636</v>
+        <v>692</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>662</v>
+        <v>693</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>663</v>
+        <v>694</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>664</v>
+        <v>695</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>631</v>
+        <v>697</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
@@ -8435,55 +8633,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="E12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="F12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="G12" s="7">
-        <v>3747</v>
+        <v>2702</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="J12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="K12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="L12" s="7">
-        <v>4342</v>
+        <v>3184</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="O12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="P12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="Q12" s="7">
-        <v>8089</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8492,49 +8690,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>317</v>
+        <v>488</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>671</v>
+        <v>387</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>672</v>
+        <v>703</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>674</v>
+        <v>705</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>675</v>
+        <v>646</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>682</v>
+        <v>712</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>673</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8543,46 +8741,46 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>683</v>
+        <v>714</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>684</v>
+        <v>715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>685</v>
+        <v>716</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>687</v>
+        <v>72</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>688</v>
+        <v>570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>689</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>345</v>
+        <v>719</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>346</v>
+        <v>720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>691</v>
+        <v>721</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>31</v>
@@ -8594,34 +8792,34 @@
         <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>693</v>
+        <v>722</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>694</v>
+        <v>587</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>699</v>
+        <v>582</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>702</v>
+        <v>729</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>31</v>
@@ -8641,55 +8839,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>703</v>
+        <v>730</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D16" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="E16" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="F16" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="G16" s="7">
-        <v>2702</v>
+        <v>3842</v>
       </c>
       <c r="H16" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I16" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="J16" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="K16" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="L16" s="7">
-        <v>3184</v>
+        <v>4521</v>
       </c>
       <c r="M16" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N16" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="O16" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="P16" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="Q16" s="7">
-        <v>5886</v>
+        <v>8363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8698,49 +8896,49 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>704</v>
+        <v>731</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>387</v>
+        <v>519</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>707</v>
+        <v>135</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>709</v>
+        <v>244</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>711</v>
+        <v>736</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,46 +8947,46 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>621</v>
+        <v>745</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>72</v>
+        <v>707</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>532</v>
+        <v>747</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>242</v>
+        <v>748</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>677</v>
+        <v>753</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>31</v>
@@ -8800,34 +8998,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>725</v>
+        <v>497</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>549</v>
+        <v>754</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>726</v>
+        <v>634</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>727</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>729</v>
+        <v>492</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>544</v>
+        <v>756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>730</v>
+        <v>638</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>731</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>732</v>
+        <v>757</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>31</v>
@@ -8847,55 +9045,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>733</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="E20" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="F20" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="G20" s="7">
-        <v>3842</v>
+        <v>13030</v>
       </c>
       <c r="H20" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I20" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="J20" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="K20" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="L20" s="7">
-        <v>4521</v>
+        <v>15300</v>
       </c>
       <c r="M20" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="O20" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="P20" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="Q20" s="7">
-        <v>8363</v>
+        <v>28330</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8904,49 +9102,49 @@
         <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>734</v>
+        <v>31</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>483</v>
+        <v>31</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>735</v>
+        <v>31</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>736</v>
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>737</v>
+        <v>31</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>244</v>
+        <v>31</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>738</v>
+        <v>31</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>739</v>
+        <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>740</v>
+        <v>31</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>741</v>
+        <v>31</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>742</v>
+        <v>31</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>743</v>
+        <v>31</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>744</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>745</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8955,46 +9153,46 @@
         <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>746</v>
+        <v>500</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>747</v>
+        <v>501</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>748</v>
+        <v>502</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>749</v>
+        <v>503</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>710</v>
+        <v>504</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>750</v>
+        <v>505</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>751</v>
+        <v>506</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>752</v>
+        <v>507</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>753</v>
+        <v>508</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>754</v>
+        <v>509</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>755</v>
+        <v>346</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>756</v>
+        <v>510</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>31</v>
@@ -9006,34 +9204,34 @@
         <v>40</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>757</v>
+        <v>511</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>758</v>
+        <v>245</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>596</v>
+        <v>420</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>356</v>
+        <v>512</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>759</v>
+        <v>514</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>760</v>
+        <v>250</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>600</v>
+        <v>425</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>361</v>
+        <v>515</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>761</v>
+        <v>516</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>31</v>
@@ -9052,300 +9250,93 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3209</v>
-      </c>
-      <c r="E24" s="7">
-        <v>3231</v>
-      </c>
-      <c r="F24" s="7">
-        <v>3376</v>
-      </c>
-      <c r="G24" s="7">
-        <v>13030</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3298</v>
-      </c>
-      <c r="J24" s="7">
-        <v>3338</v>
-      </c>
-      <c r="K24" s="7">
-        <v>5367</v>
-      </c>
-      <c r="L24" s="7">
-        <v>15300</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6507</v>
-      </c>
-      <c r="O24" s="7">
-        <v>6569</v>
-      </c>
-      <c r="P24" s="7">
-        <v>8743</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>28330</v>
+      <c r="A24" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A25" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>255</v>
-      </c>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A29:M33"/>
+    <mergeCell ref="A25:M29"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -9358,7 +9349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A817CF-D014-434F-BC3F-4D57653EF194}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ECD2D8-77EF-4119-8EE5-06EDACEDFD19}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9470,7 +9461,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -9479,7 +9470,7 @@
         <v>271</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="E4" s="7">
         <v>266</v>
@@ -9488,13 +9479,13 @@
         <v>331</v>
       </c>
       <c r="G4" s="7">
-        <v>868</v>
+        <v>1150</v>
       </c>
       <c r="H4" s="7">
         <v>245</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="J4" s="7">
         <v>277</v>
@@ -9503,13 +9494,13 @@
         <v>538</v>
       </c>
       <c r="L4" s="7">
-        <v>1060</v>
+        <v>1316</v>
       </c>
       <c r="M4" s="7">
         <v>516</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="O4" s="7">
         <v>543</v>
@@ -9518,7 +9509,7 @@
         <v>869</v>
       </c>
       <c r="Q4" s="7">
-        <v>1928</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9527,40 +9518,40 @@
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>763</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>768</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>764</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>771</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>764</v>
+        <v>200</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>200</v>
@@ -9569,7 +9560,7 @@
         <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9578,46 +9569,46 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="N6" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>778</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>782</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -9629,40 +9620,40 @@
         <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>791</v>
-      </c>
       <c r="M7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>784</v>
+        <v>31</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>31</v>
@@ -9676,7 +9667,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
@@ -9733,49 +9724,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>796</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>799</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>411</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>803</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>805</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9784,46 +9775,46 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="O10" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>812</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>813</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>814</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>815</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>31</v>
@@ -9835,34 +9826,34 @@
         <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>326</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>817</v>
+        <v>663</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>322</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>821</v>
+        <v>666</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>31</v>
@@ -9882,7 +9873,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
@@ -9939,49 +9930,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>267</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>828</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>832</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>835</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9990,46 +9981,46 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>148</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>417</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>842</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>843</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>845</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>847</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>31</v>
@@ -10041,34 +10032,34 @@
         <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>852</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>857</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>31</v>
@@ -10088,7 +10079,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>9</v>
@@ -10097,7 +10088,7 @@
         <v>362</v>
       </c>
       <c r="D16" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="E16" s="7">
         <v>354</v>
@@ -10106,13 +10097,13 @@
         <v>292</v>
       </c>
       <c r="G16" s="7">
-        <v>1634</v>
+        <v>1352</v>
       </c>
       <c r="H16" s="7">
         <v>384</v>
       </c>
       <c r="I16" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="J16" s="7">
         <v>358</v>
@@ -10121,13 +10112,13 @@
         <v>599</v>
       </c>
       <c r="L16" s="7">
-        <v>1968</v>
+        <v>1712</v>
       </c>
       <c r="M16" s="7">
         <v>746</v>
       </c>
       <c r="N16" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="O16" s="7">
         <v>712</v>
@@ -10136,7 +10127,7 @@
         <v>891</v>
       </c>
       <c r="Q16" s="7">
-        <v>3602</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10145,49 +10136,49 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>711</v>
+        <v>855</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="N17" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="O17" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>865</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10196,46 +10187,46 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="L18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="I18" s="7" t="s">
+      <c r="N18" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="O18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>874</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>31</v>
@@ -10247,34 +10238,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>884</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>887</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>31</v>
@@ -10294,7 +10285,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>9</v>
@@ -10351,49 +10342,49 @@
         <v>10</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="G21" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>894</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="N21" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="O21" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>898</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>899</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>901</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>902</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10402,7 +10393,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>239</v>
@@ -10411,7 +10402,7 @@
         <v>208</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>31</v>
@@ -10423,25 +10414,25 @@
         <v>332</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>225</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>31</v>
@@ -10453,34 +10444,34 @@
         <v>40</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>915</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>919</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>31</v>
@@ -10500,7 +10491,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>9</v>
@@ -10557,49 +10548,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="M25" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="O25" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>929</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>930</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>931</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>932</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>933</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10608,46 +10599,46 @@
         <v>26</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>171</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>940</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>941</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>942</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>944</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>945</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>31</v>
@@ -10659,34 +10650,34 @@
         <v>40</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>950</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>951</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>952</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>953</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>954</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>31</v>
@@ -10706,7 +10697,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>9</v>
@@ -10763,49 +10754,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>957</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="I29" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="M29" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="N29" s="7" t="s">
         <v>962</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>964</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>965</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>341</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10814,46 +10805,46 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>318</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="7" t="s">
+      <c r="L30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="N30" s="7" t="s">
         <v>972</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>973</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>974</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>975</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>243</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>31</v>
@@ -10865,34 +10856,34 @@
         <v>40</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>978</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>983</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>984</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>985</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>986</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>31</v>
@@ -10912,7 +10903,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>9</v>
@@ -10969,49 +10960,49 @@
         <v>10</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>991</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>992</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>573</v>
+        <v>611</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>174</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>134</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>417</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11020,46 +11011,46 @@
         <v>26</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="G34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>839</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="7" t="s">
+      <c r="J34" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>993</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>1001</v>
-      </c>
       <c r="L34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>1002</v>
+        <v>769</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>133</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>31</v>
@@ -11071,34 +11062,34 @@
         <v>40</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>1005</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="I35" s="7" t="s">
         <v>1008</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="J35" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>1010</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>1011</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>1012</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>1013</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>1014</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>31</v>
@@ -11226,46 +11217,46 @@
         <v>26</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>346</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>31</v>
@@ -11277,7 +11268,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>245</v>
@@ -11286,13 +11277,13 @@
         <v>420</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>250</v>
@@ -11301,10 +11292,10 @@
         <v>425</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>31</v>
@@ -11426,7 +11417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D98E6C4-DA2B-4A3B-9F8A-6311B5347688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772BBB12-DA66-4439-8D52-6C3492880908}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/EntrevistasRealizadas.xlsx
+++ b/data/EntrevistasRealizadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Dropbox\Autónomo\EAS\web\generator\join tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DB66D7-19E4-4AF1-87E9-ED77CE2612F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B732E4-B04F-430F-9413-68CB00FB127D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3136,23 +3136,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3524,35 +3524,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3619,7 +3619,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3672,7 +3672,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3723,7 +3723,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -3774,7 +3774,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -3825,7 +3825,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3878,7 +3878,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -3929,7 +3929,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -3980,7 +3980,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -4031,7 +4031,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4084,7 +4084,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -4135,7 +4135,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -4186,7 +4186,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4290,7 +4290,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -4341,7 +4341,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -4392,7 +4392,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -4443,7 +4443,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4496,7 +4496,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -4547,7 +4547,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -4598,7 +4598,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -4649,7 +4649,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>197</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -4702,7 +4702,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
@@ -4753,7 +4753,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -4804,7 +4804,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
@@ -4855,7 +4855,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4908,7 +4908,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -4959,7 +4959,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
@@ -5010,7 +5010,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
         <v>40</v>
       </c>
@@ -5061,7 +5061,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -5114,7 +5114,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
@@ -5165,7 +5165,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
@@ -5216,7 +5216,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
@@ -5272,81 +5272,81 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5385,35 +5385,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5480,7 +5480,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>289</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5533,7 +5533,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5584,7 +5584,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -5635,7 +5635,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -5686,7 +5686,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>320</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5739,7 +5739,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -5790,7 +5790,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -5841,7 +5841,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -5892,7 +5892,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>353</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5945,7 +5945,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -5996,7 +5996,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -6047,7 +6047,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -6098,7 +6098,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>385</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6151,7 +6151,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -6202,7 +6202,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -6253,7 +6253,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -6304,7 +6304,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -6357,7 +6357,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -6408,7 +6408,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -6459,7 +6459,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -6515,81 +6515,81 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6625,35 +6625,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6720,7 +6720,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>418</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6773,7 +6773,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6824,7 +6824,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -6875,7 +6875,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -6926,7 +6926,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>451</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6979,7 +6979,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -7030,7 +7030,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -7081,7 +7081,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -7132,7 +7132,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>481</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -7185,7 +7185,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -7236,7 +7236,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -7287,7 +7287,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -7338,7 +7338,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>516</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -7391,7 +7391,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -7442,7 +7442,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -7493,7 +7493,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -7544,7 +7544,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>550</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -7597,7 +7597,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -7648,7 +7648,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -7699,7 +7699,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -7750,7 +7750,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>584</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -7803,7 +7803,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
@@ -7854,7 +7854,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -7905,7 +7905,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
@@ -7956,7 +7956,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>620</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -8009,7 +8009,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -8060,7 +8060,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
@@ -8111,7 +8111,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
         <v>40</v>
       </c>
@@ -8162,7 +8162,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
         <v>655</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -8215,7 +8215,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
@@ -8266,7 +8266,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
@@ -8317,7 +8317,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
@@ -8368,7 +8368,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -8421,7 +8421,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
@@ -8472,7 +8472,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="2" t="s">
         <v>26</v>
       </c>
@@ -8523,7 +8523,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
@@ -8579,81 +8579,81 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8684,7 +8684,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:M25"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8693,35 +8693,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8788,7 +8788,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>687</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8841,7 +8841,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -8892,7 +8892,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -8943,7 +8943,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -8994,7 +8994,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>724</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -9047,7 +9047,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -9098,7 +9098,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -9149,7 +9149,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -9200,7 +9200,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>756</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -9253,7 +9253,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -9304,7 +9304,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -9355,7 +9355,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -9406,7 +9406,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -9459,7 +9459,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -9510,7 +9510,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -9561,7 +9561,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -9617,81 +9617,81 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9726,35 +9726,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -9821,7 +9821,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>806</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -9874,7 +9874,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -9925,7 +9925,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -9976,7 +9976,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -10027,7 +10027,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>836</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -10080,7 +10080,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -10131,7 +10131,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -10182,7 +10182,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -10233,7 +10233,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>867</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -10286,7 +10286,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -10337,7 +10337,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -10388,7 +10388,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -10439,7 +10439,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>903</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -10492,7 +10492,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -10543,7 +10543,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -10594,7 +10594,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -10645,7 +10645,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>932</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -10698,7 +10698,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -10749,7 +10749,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -10800,7 +10800,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -10851,7 +10851,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>966</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -10904,7 +10904,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
@@ -10955,7 +10955,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -11006,7 +11006,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
@@ -11057,7 +11057,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -11110,7 +11110,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -11161,7 +11161,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
@@ -11212,7 +11212,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
         <v>40</v>
       </c>
@@ -11268,81 +11268,81 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/data/EntrevistasRealizadas.xlsx
+++ b/data/EntrevistasRealizadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Dropbox\Autónomo\EAS\web\generator\join tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B732E4-B04F-430F-9413-68CB00FB127D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C73C4A-5AF9-4C59-8365-FAFB6CD57422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2925,7 +2925,7 @@
     <t>62,11%</t>
   </si>
   <si>
-    <t>No ha trabajado</t>
+    <t>6.0</t>
   </si>
   <si>
     <t>9,54%</t>
@@ -3136,23 +3136,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3173,20 +3173,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7116951" cy="10058400"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>777111</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC59755C-3412-4B4E-8153-EDE40AB97F25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C715F5-DE9D-422F-932F-F51A089BBBE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3220,7 +3225,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3524,35 +3529,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3619,7 +3624,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3672,7 +3677,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3723,7 +3728,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -3774,7 +3779,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -3825,7 +3830,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3878,7 +3883,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -3929,7 +3934,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -3980,7 +3985,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -4031,7 +4036,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4084,7 +4089,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -4135,7 +4140,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -4186,7 +4191,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -4237,7 +4242,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4290,7 +4295,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -4341,7 +4346,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -4392,7 +4397,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -4443,7 +4448,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4496,7 +4501,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -4547,7 +4552,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -4598,7 +4603,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -4649,7 +4654,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -4702,7 +4707,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
@@ -4753,7 +4758,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -4804,7 +4809,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
@@ -4855,7 +4860,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>233</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4908,7 +4913,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -4959,7 +4964,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
@@ -5010,7 +5015,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>40</v>
       </c>
@@ -5061,7 +5066,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -5114,7 +5119,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
@@ -5165,7 +5170,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
@@ -5216,7 +5221,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
@@ -5272,81 +5277,81 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5385,35 +5390,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5480,7 +5485,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>289</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5533,7 +5538,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5584,7 +5589,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -5635,7 +5640,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -5686,7 +5691,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>320</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5739,7 +5744,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -5790,7 +5795,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -5841,7 +5846,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -5892,7 +5897,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>353</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5945,7 +5950,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -5996,7 +6001,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -6047,7 +6052,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -6098,7 +6103,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>385</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6151,7 +6156,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -6202,7 +6207,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -6253,7 +6258,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -6304,7 +6309,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -6357,7 +6362,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -6408,7 +6413,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -6459,7 +6464,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -6515,81 +6520,81 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6625,35 +6630,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6720,7 +6725,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>418</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6773,7 +6778,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6824,7 +6829,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -6875,7 +6880,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -6926,7 +6931,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>451</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6979,7 +6984,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -7030,7 +7035,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -7081,7 +7086,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -7132,7 +7137,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>481</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -7185,7 +7190,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -7236,7 +7241,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -7287,7 +7292,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -7338,7 +7343,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>516</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -7391,7 +7396,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -7442,7 +7447,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -7493,7 +7498,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -7544,7 +7549,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>550</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -7597,7 +7602,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -7648,7 +7653,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -7699,7 +7704,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -7750,7 +7755,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>584</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -7803,7 +7808,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
@@ -7854,7 +7859,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -7905,7 +7910,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
@@ -7956,7 +7961,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>620</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -8009,7 +8014,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -8060,7 +8065,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
@@ -8111,7 +8116,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>40</v>
       </c>
@@ -8162,7 +8167,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>655</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -8215,7 +8220,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
@@ -8266,7 +8271,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
@@ -8317,7 +8322,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
@@ -8368,7 +8373,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -8421,7 +8426,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
@@ -8472,7 +8477,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
         <v>26</v>
       </c>
@@ -8523,7 +8528,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
@@ -8579,81 +8584,81 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8693,35 +8698,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8788,7 +8793,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>687</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8841,7 +8846,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -8892,7 +8897,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -8943,7 +8948,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -8994,7 +8999,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>724</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -9047,7 +9052,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -9098,7 +9103,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -9149,7 +9154,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -9200,7 +9205,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>756</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -9253,7 +9258,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -9304,7 +9309,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -9355,7 +9360,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -9406,7 +9411,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -9459,7 +9464,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -9510,7 +9515,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -9561,7 +9566,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -9617,81 +9622,81 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9726,35 +9731,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -9821,7 +9826,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>806</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -9874,7 +9879,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -9925,7 +9930,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -9976,7 +9981,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -10027,7 +10032,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>836</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -10080,7 +10085,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -10131,7 +10136,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -10182,7 +10187,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
@@ -10233,7 +10238,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>867</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -10286,7 +10291,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -10337,7 +10342,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -10388,7 +10393,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
@@ -10439,7 +10444,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>903</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -10492,7 +10497,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -10543,7 +10548,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -10594,7 +10599,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -10645,7 +10650,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>932</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -10698,7 +10703,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -10749,7 +10754,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
@@ -10800,7 +10805,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -10851,7 +10856,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>966</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -10904,7 +10909,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
@@ -10955,7 +10960,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -11006,7 +11011,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
@@ -11057,7 +11062,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -11110,7 +11115,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -11161,7 +11166,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
@@ -11212,7 +11217,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>40</v>
       </c>
@@ -11268,81 +11273,81 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -11364,7 +11369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50498C3F-9A1A-4D9D-9374-9CBD5C6C8038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7165A089-7021-4D46-BA7D-06D816BB4728}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
